--- a/pyqt_implementation/mock_excels/mock3.xlsx
+++ b/pyqt_implementation/mock_excels/mock3.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tnightengale/Desktop/Projects/string_matching/pyqt_implementation/mock_excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TeghanN\Desktop\string_matching\pyqt_implementation\mock_excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Name:</t>
   </si>
@@ -63,6 +60,36 @@
   </si>
   <si>
     <t>Type3:</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>asset class</t>
+  </si>
+  <si>
+    <t>load type</t>
+  </si>
+  <si>
+    <t>stuff</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>ll</t>
+  </si>
+  <si>
+    <t>fe</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -109,6 +136,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -377,42 +407,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G15"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" t="e">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT("test",RANDBETWEEN(1,100))</f>
-        <v>test98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" t="e">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT("values",RANDBETWEEN(1,100))</f>
-        <v>values10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" t="e">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT("things",RANDBETWEEN(1,100))</f>
-        <v>things64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -432,169 +462,230 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <f ca="1">RANDBETWEEN(10,1000)</f>
-        <v>489</v>
+        <v>621</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:G10" ca="1" si="0">RANDBETWEEN(10,1000)</f>
-        <v>764</v>
+        <v>603</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>431</v>
+        <v>215</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>130</v>
+        <v>688</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>862</v>
+        <v>669</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>716</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11">
-        <f t="shared" ref="B11:G16" ca="1" si="1">RANDBETWEEN(10,1000)</f>
-        <v>23</v>
+        <f t="shared" ref="B11:G15" ca="1" si="1">RANDBETWEEN(10,1000)</f>
+        <v>587</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>609</v>
+        <v>465</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>747</v>
+        <v>872</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>166</v>
+        <v>456</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>671</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>705</v>
+        <v>939</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>685</v>
+        <v>732</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>817</v>
+        <v>850</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>233</v>
+        <v>911</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>562</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>403</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>446</v>
+        <v>19</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>855</v>
+        <v>508</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>614</v>
+        <v>829</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>778</v>
+        <v>952</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>927</v>
+        <v>600</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>322</v>
+        <v>662</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>333</v>
+        <v>656</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>509</v>
+        <v>586</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>864</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>625</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>946</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>591</v>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
